--- a/doors-detector/results/house10_door_no_door.xlsx
+++ b/doors-detector/results/house10_door_no_door.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7871014034954568</v>
+        <v>0.7953951982341622</v>
       </c>
       <c r="F2" t="n">
         <v>3080</v>
       </c>
       <c r="G2" t="n">
-        <v>2570</v>
+        <v>2583</v>
       </c>
       <c r="H2" t="n">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.5906116207509436</v>
+        <v>0.5912696064549082</v>
       </c>
       <c r="F3" t="n">
         <v>179</v>
       </c>
       <c r="G3" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H3" t="n">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.8347040648609657</v>
+        <v>0.8436826923107339</v>
       </c>
       <c r="F4" t="n">
         <v>3080</v>
       </c>
       <c r="G4" t="n">
-        <v>2672</v>
+        <v>2690</v>
       </c>
       <c r="H4" t="n">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7492975379433841</v>
+        <v>0.7425616273935899</v>
       </c>
       <c r="F5" t="n">
         <v>179</v>
       </c>
       <c r="G5" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" t="n">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.8455257992785039</v>
+        <v>0.8584545348365791</v>
       </c>
       <c r="F6" t="n">
         <v>3080</v>
       </c>
       <c r="G6" t="n">
-        <v>2696</v>
+        <v>2726</v>
       </c>
       <c r="H6" t="n">
-        <v>384</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8193961797346488</v>
+        <v>0.7865165669973438</v>
       </c>
       <c r="F7" t="n">
         <v>179</v>
       </c>
       <c r="G7" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H7" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8722558579031562</v>
+        <v>0.8880349181484422</v>
       </c>
       <c r="F8" t="n">
         <v>3080</v>
       </c>
       <c r="G8" t="n">
-        <v>2749</v>
+        <v>2784</v>
       </c>
       <c r="H8" t="n">
-        <v>331</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8011347765207638</v>
+        <v>0.7779378033191351</v>
       </c>
       <c r="F9" t="n">
         <v>179</v>
@@ -728,7 +728,7 @@
         <v>161</v>
       </c>
       <c r="H9" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
